--- a/documentation/GANTT.xlsx
+++ b/documentation/GANTT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28920" windowHeight="16110"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Planificateur de projet" sheetId="1" r:id="rId1"/>
@@ -931,12 +931,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="3" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="3" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="3" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="3" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="44" borderId="3" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="42" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="43" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="45" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="12">
       <alignment vertical="center"/>
     </xf>
@@ -966,45 +1005,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="3" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="3" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="3" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="3" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="3" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="42" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="43" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="45" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -1462,8 +1462,8 @@
   </sheetPr>
   <dimension ref="B1:BP30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1503,13 +1503,13 @@
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="2:68" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1517,73 +1517,73 @@
         <v>1</v>
       </c>
       <c r="J2" s="11"/>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="29"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="42"/>
       <c r="P2" s="12"/>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="19" t="s">
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="19" t="s">
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="19" t="s">
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="31"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="19" t="s">
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="33"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="AM2" s="20"/>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="31"/>
-      <c r="AP2" s="36"/>
-      <c r="AQ2" s="19" t="s">
+      <c r="AM2" s="32"/>
+      <c r="AN2" s="32"/>
+      <c r="AO2" s="33"/>
+      <c r="AP2" s="23"/>
+      <c r="AQ2" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="AR2" s="20"/>
-      <c r="AS2" s="20"/>
-      <c r="AT2" s="31"/>
+      <c r="AR2" s="32"/>
+      <c r="AS2" s="32"/>
+      <c r="AT2" s="33"/>
     </row>
     <row r="3" spans="2:68" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="39" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="13" t="s">
@@ -1610,12 +1610,12 @@
       <c r="AA3" s="6"/>
     </row>
     <row r="4" spans="2:68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="23"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
       <c r="H4" s="2">
         <v>1</v>
       </c>
@@ -1713,7 +1713,7 @@
       <c r="BP4" s="2"/>
     </row>
     <row r="5" spans="2:68" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="15">
@@ -1731,7 +1731,7 @@
       <c r="G5" s="4">
         <v>1</v>
       </c>
-      <c r="H5" s="37"/>
+      <c r="H5" s="24"/>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
@@ -1793,7 +1793,7 @@
       <c r="BO5" s="18"/>
     </row>
     <row r="6" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="15">
@@ -1873,7 +1873,7 @@
       <c r="BO6" s="18"/>
     </row>
     <row r="7" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="27" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="15">
@@ -1953,7 +1953,7 @@
       <c r="BO7" s="18"/>
     </row>
     <row r="8" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="15">
@@ -2033,7 +2033,7 @@
       <c r="BO8" s="18"/>
     </row>
     <row r="9" spans="2:68" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="27" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="15">
@@ -2113,7 +2113,7 @@
       <c r="BO9" s="18"/>
     </row>
     <row r="10" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="27" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="15">
@@ -2193,7 +2193,7 @@
       <c r="BO10" s="18"/>
     </row>
     <row r="11" spans="2:68" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="26" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="15">
@@ -2273,7 +2273,7 @@
       <c r="BO11" s="18"/>
     </row>
     <row r="12" spans="2:68" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="26" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="15">
@@ -2289,7 +2289,7 @@
         <v>5</v>
       </c>
       <c r="G12" s="4">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
@@ -2353,7 +2353,7 @@
       <c r="BO12" s="18"/>
     </row>
     <row r="13" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="25" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="15">
@@ -2433,7 +2433,7 @@
       <c r="BO13" s="18"/>
     </row>
     <row r="14" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="26" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="15">
@@ -2513,7 +2513,7 @@
       <c r="BO14" s="18"/>
     </row>
     <row r="15" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="26" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="16">
@@ -2593,7 +2593,7 @@
       <c r="BO15" s="18"/>
     </row>
     <row r="16" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="30" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="15">
@@ -2673,7 +2673,7 @@
       <c r="BO16" s="18"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="29" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="15">
@@ -2753,7 +2753,7 @@
       <c r="BO17" s="18"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="28" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="15">
@@ -3650,20 +3650,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="V2:Y2"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:BO30">
     <cfRule type="expression" dxfId="9" priority="1">
